--- a/expenses_Paid.xlsx
+++ b/expenses_Paid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Carlos Mariscal</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>NES controllers</t>
+  </si>
+  <si>
+    <t>digikey</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -428,6 +431,9 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
@@ -439,7 +445,9 @@
       <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>33.83</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>

--- a/expenses_Paid.xlsx
+++ b/expenses_Paid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Carlos Mariscal</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>digikey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goodwill </t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -434,6 +437,9 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" t="s">
@@ -448,7 +454,9 @@
       <c r="D2" s="1">
         <v>33.83</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>

--- a/expenses_Paid.xlsx
+++ b/expenses_Paid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Carlos Mariscal</t>
   </si>
@@ -42,7 +42,10 @@
     <t>digikey</t>
   </si>
   <si>
-    <t xml:space="preserve">goodwill </t>
+    <t>ebay (controllers)</t>
+  </si>
+  <si>
+    <t>goodwill (12V bricks)</t>
   </si>
 </sst>
 </file>
@@ -425,6 +428,8 @@
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -438,6 +443,9 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -449,15 +457,17 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <v>33.83</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>21</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
